--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s3_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>84.26741428083736</v>
+        <v>108.1470106876883</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1590001583099365</v>
+        <v>0.1170001029968262</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.61741428083737</v>
+        <v>34.14701068768829</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.65</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -645,7 +645,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -736,7 +736,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -747,7 +747,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27.53018219295431</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>22.69023945846927</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.84866676379884</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>23.30208569452857</v>
+        <v>20.33301651610689</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>186.4779999999992</v>
+        <v>64.2</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>83.25399999999948</v>
+        <v>173.8</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>124.4859999999994</v>
+        <v>124.8</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>73.97799999999916</v>
+        <v>60.6</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>122.098</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>124.4859999999994</v>
+        <v>173.8</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>186.4779999999992</v>
+        <v>124.8</v>
       </c>
     </row>
   </sheetData>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="3">
@@ -1181,7 +1181,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4.765</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
